--- a/03. Planilhas/Catalogo variaveis v3.xlsx
+++ b/03. Planilhas/Catalogo variaveis v3.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="404">
   <si>
     <t>TIPOBITO</t>
   </si>
@@ -1117,9 +1117,6 @@
   </si>
   <si>
     <t>Formato aaaa-mm-dd</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Tirar causas</t>
@@ -1692,8 +1689,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:K224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1743,7 @@
         <v>357</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -1816,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -1852,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -1888,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>375</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1929,10 +1926,10 @@
         <v>359</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1965,10 +1962,10 @@
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="20" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
@@ -2003,7 +2000,7 @@
         <v>360</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2038,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K11" s="17"/>
     </row>
@@ -2077,7 +2074,7 @@
         <v>361</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -2112,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -2150,13 +2147,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2189,7 +2186,7 @@
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
@@ -2224,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -2260,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K17" s="17"/>
     </row>
@@ -2436,7 +2433,7 @@
       </c>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
@@ -2469,7 +2466,7 @@
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2508,7 +2505,7 @@
       </c>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
@@ -2541,7 +2538,7 @@
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
@@ -2580,7 +2577,7 @@
       </c>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
@@ -2613,7 +2610,7 @@
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -2652,7 +2649,7 @@
       </c>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
@@ -2685,7 +2682,7 @@
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -2720,10 +2717,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="66" hidden="1" x14ac:dyDescent="0.25">
@@ -2758,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
@@ -2800,7 +2797,7 @@
       </c>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
@@ -2833,7 +2830,7 @@
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="66" hidden="1" x14ac:dyDescent="0.25">
@@ -2868,10 +2865,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2976,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K37" s="17"/>
     </row>
@@ -3150,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K42" s="17"/>
     </row>
@@ -3222,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K44" s="17"/>
     </row>
@@ -3294,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K46" s="17"/>
     </row>
@@ -3366,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K48" s="17"/>
     </row>
@@ -3472,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K51" s="17"/>
     </row>
@@ -3544,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K53" s="17"/>
     </row>
@@ -3584,7 +3581,7 @@
       </c>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="2:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>105</v>
       </c>
@@ -3617,7 +3614,7 @@
       </c>
       <c r="J55" s="17"/>
       <c r="K55" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -3656,7 +3653,7 @@
       </c>
       <c r="K56" s="17"/>
     </row>
-    <row r="57" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>109</v>
       </c>
@@ -3689,7 +3686,7 @@
       </c>
       <c r="J57" s="17"/>
       <c r="K57" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -3728,7 +3725,7 @@
       </c>
       <c r="K58" s="17"/>
     </row>
-    <row r="59" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>113</v>
       </c>
@@ -3761,7 +3758,7 @@
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -3800,7 +3797,7 @@
       </c>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>117</v>
       </c>
@@ -3833,10 +3830,10 @@
       </c>
       <c r="J61" s="17"/>
       <c r="K61" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>119</v>
       </c>
@@ -3868,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K62" s="17"/>
     </row>
@@ -3904,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K63" s="17"/>
     </row>
@@ -3940,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K64" s="17"/>
     </row>
@@ -4078,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K68" s="17"/>
     </row>
@@ -4114,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K69" s="17"/>
     </row>
@@ -4150,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K70" s="17"/>
     </row>
@@ -4186,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K71" s="17"/>
     </row>
@@ -4258,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K73" s="17"/>
     </row>
@@ -4328,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K75" s="17"/>
     </row>
@@ -4638,7 +4635,7 @@
       <c r="J84" s="21"/>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>163</v>
       </c>
@@ -4773,7 +4770,7 @@
       </c>
       <c r="J88" s="21"/>
       <c r="K88" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4878,7 +4875,7 @@
       <c r="J91" s="21"/>
       <c r="K91" s="17"/>
     </row>
-    <row r="92" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>177</v>
       </c>
@@ -4945,7 +4942,7 @@
       </c>
       <c r="J93" s="21"/>
       <c r="K93" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -4981,7 +4978,7 @@
       </c>
       <c r="J94" s="21"/>
       <c r="K94" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -5086,7 +5083,7 @@
       <c r="J97" s="21"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>189</v>
       </c>
@@ -5187,7 +5184,7 @@
       </c>
       <c r="J100" s="21"/>
       <c r="K100" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5258,7 +5255,7 @@
       <c r="J102" s="21"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>200</v>
       </c>
@@ -5970,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K123" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -6009,7 +6006,7 @@
       </c>
       <c r="J124" s="17"/>
       <c r="K124" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="2:11" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
@@ -6044,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K125" s="17"/>
     </row>
@@ -6080,11 +6077,11 @@
         <v>0</v>
       </c>
       <c r="J126" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K126" s="17"/>
     </row>
-    <row r="127" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>233</v>
       </c>
@@ -6116,13 +6113,13 @@
         <v>1</v>
       </c>
       <c r="J127" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K127" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
         <v>235</v>
       </c>
@@ -6154,13 +6151,13 @@
         <v>1</v>
       </c>
       <c r="J128" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K128" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
         <v>237</v>
       </c>
@@ -6192,13 +6189,13 @@
         <v>1</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K129" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
         <v>239</v>
       </c>
@@ -6230,10 +6227,10 @@
         <v>1</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K130" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -6268,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K131" s="17"/>
     </row>
@@ -6304,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K132" s="17"/>
     </row>
@@ -6340,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K133" s="17"/>
     </row>
@@ -6376,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K134" s="17"/>
     </row>
@@ -6412,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K135" s="17"/>
     </row>
@@ -6516,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K138" s="17"/>
     </row>
@@ -6552,11 +6549,11 @@
         <v>0</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K139" s="17"/>
     </row>
-    <row r="140" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>259</v>
       </c>
@@ -6588,13 +6585,13 @@
         <v>1</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K140" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
         <v>261</v>
       </c>
@@ -6626,13 +6623,13 @@
         <v>1</v>
       </c>
       <c r="J141" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K141" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
         <v>263</v>
       </c>
@@ -6664,13 +6661,13 @@
         <v>1</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K142" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
         <v>265</v>
       </c>
@@ -6702,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K143" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -6740,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K144" s="17"/>
     </row>
@@ -6776,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K145" s="17"/>
     </row>
@@ -6812,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K146" s="17"/>
     </row>
@@ -6848,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K147" s="17"/>
     </row>
@@ -6884,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K148" s="17"/>
     </row>
@@ -6920,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K149" s="17"/>
     </row>
@@ -6956,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K150" s="17"/>
     </row>
@@ -6994,7 +6991,7 @@
       <c r="J151" s="17"/>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
         <v>283</v>
       </c>
@@ -7027,7 +7024,7 @@
       </c>
       <c r="J152" s="17"/>
       <c r="K152" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="153" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
@@ -7062,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K153" s="17"/>
     </row>
@@ -7098,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K154" s="17"/>
     </row>
@@ -7134,11 +7131,11 @@
         <v>0</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K155" s="17"/>
     </row>
-    <row r="156" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3" t="s">
         <v>291</v>
       </c>
@@ -7171,10 +7168,10 @@
       </c>
       <c r="J156" s="17"/>
       <c r="K156" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
         <v>293</v>
       </c>
@@ -7203,14 +7200,14 @@
         <v>Capítulo CID-10 da causa base do óbito</v>
       </c>
       <c r="I157" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K157" s="17"/>
     </row>
-    <row r="158" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
         <v>295</v>
       </c>
@@ -7239,12 +7236,14 @@
         <v>Grupo CID-10 da causa base do óbito</v>
       </c>
       <c r="I158" s="7">
-        <v>0</v>
-      </c>
-      <c r="J158" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="J158" s="17" t="s">
+        <v>366</v>
+      </c>
       <c r="K158" s="17"/>
     </row>
-    <row r="159" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
         <v>297</v>
       </c>
@@ -7278,7 +7277,7 @@
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
     </row>
-    <row r="160" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
         <v>299</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K161" s="17"/>
     </row>
@@ -7380,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K162" s="17"/>
     </row>
@@ -7484,10 +7483,10 @@
         <v>1</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K165" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8394,9 +8393,17 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:K178">
-    <filterColumn colId="9">
+    <filterColumn colId="6">
       <filters>
-        <filter val="One hot"/>
+        <filter val="Capítulo CID-10 da causa base do óbito"/>
+        <filter val="Categoria CID-10 da causa base do óbito"/>
+        <filter val="Causa básica original, a primeira informação que entra nosistema"/>
+        <filter val="Causa básica, conforme a Classificação Internacional de Doença (CID), 10a. Revisão"/>
+        <filter val="Causa externa associada a uma causa materna"/>
+        <filter val="Causa selecionada sem re-seleção (novo SCB)"/>
+        <filter val="Grupo CID-10 da causa base do óbito"/>
+        <filter val="Subcategoria CID-10 da causa base do óbito"/>
+        <filter val="Versão do seletor de causa básica"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/03. Planilhas/Catalogo variaveis v3.xlsx
+++ b/03. Planilhas/Catalogo variaveis v3.xlsx
@@ -18,8 +18,9 @@
     <sheet name="Opcoes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Catalogo oficial'!$B$5:$G$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Catalogo oficial'!$B$5:$G$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Complete!$B$3:$K$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dados!$B$3:$F$179</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="419">
   <si>
     <t>TIPOBITO</t>
   </si>
@@ -1244,6 +1245,51 @@
   </si>
   <si>
     <t>Por depois...</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Causa</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Gestação / Parto</t>
+  </si>
+  <si>
+    <t>Falecido</t>
+  </si>
+  <si>
+    <t>Obito</t>
+  </si>
+  <si>
+    <t>Socio Econômico</t>
+  </si>
+  <si>
+    <t>Assistência Médica</t>
+  </si>
+  <si>
+    <t>Necrópsia</t>
+  </si>
+  <si>
+    <t>Exemplo</t>
+  </si>
+  <si>
+    <t>Informação familiar / sobre familiares</t>
+  </si>
+  <si>
+    <t>Informações sobre a gestação e parto</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1405,6 +1451,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,8 +1738,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:K224"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1902,7 @@
       </c>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2039,7 +2088,7 @@
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
@@ -3833,7 +3882,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>119</v>
       </c>
@@ -4635,7 +4684,7 @@
       <c r="J84" s="21"/>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>163</v>
       </c>
@@ -4875,7 +4924,7 @@
       <c r="J91" s="21"/>
       <c r="K91" s="17"/>
     </row>
-    <row r="92" spans="2:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>177</v>
       </c>
@@ -5083,7 +5132,7 @@
       <c r="J97" s="21"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>189</v>
       </c>
@@ -5255,7 +5304,7 @@
       <c r="J102" s="21"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>200</v>
       </c>
@@ -7171,7 +7220,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
         <v>293</v>
       </c>
@@ -7207,7 +7256,7 @@
       </c>
       <c r="K157" s="17"/>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
         <v>295</v>
       </c>
@@ -7243,7 +7292,7 @@
       </c>
       <c r="K158" s="17"/>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
         <v>297</v>
       </c>
@@ -7277,7 +7326,7 @@
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
         <v>299</v>
       </c>
@@ -8393,17 +8442,20 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:K178">
-    <filterColumn colId="6">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Capítulo CID-10 da causa base do óbito"/>
-        <filter val="Categoria CID-10 da causa base do óbito"/>
-        <filter val="Causa básica original, a primeira informação que entra nosistema"/>
-        <filter val="Causa básica, conforme a Classificação Internacional de Doença (CID), 10a. Revisão"/>
-        <filter val="Causa externa associada a uma causa materna"/>
-        <filter val="Causa selecionada sem re-seleção (novo SCB)"/>
-        <filter val="Grupo CID-10 da causa base do óbito"/>
-        <filter val="Subcategoria CID-10 da causa base do óbito"/>
-        <filter val="Versão do seletor de causa básica"/>
+        <filter val="data_nasc"/>
+        <filter val="data_obito"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8414,10 +8466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G164"/>
+  <dimension ref="B2:M164"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8429,15 +8481,18 @@
     <col min="5" max="5" width="64.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="16.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>308</v>
       </c>
@@ -8446,10 +8501,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="2:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>316</v>
       </c>
@@ -8468,8 +8523,21 @@
       <c r="G5" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <f>0</f>
         <v>0</v>
@@ -8490,8 +8558,24 @@
         <f>EXACT(C6,UPPER(C6))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="e">
+        <f>INDEX($E$6:$E$164,MATCH($C$6:$C$164,L6,0),1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f>B6+1</f>
         <v>1</v>
@@ -8512,8 +8596,20 @@
         <f t="shared" ref="G7:G70" si="0">EXACT(C7,UPPER(C7))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B71" si="1">B7+1</f>
         <v>2</v>
@@ -8534,8 +8630,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -8556,8 +8661,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -8578,8 +8693,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -8600,8 +8722,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -8622,8 +8751,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -8644,8 +8780,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -8666,8 +8809,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -8688,8 +8838,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8710,8 +8867,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -8732,8 +8896,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="132" x14ac:dyDescent="0.25">
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="2:9" ht="132" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8754,8 +8919,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -8776,8 +8942,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -8798,8 +8965,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8820,8 +8988,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -8842,8 +9011,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -8864,8 +9034,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -8886,8 +9057,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -8908,8 +9080,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -8930,8 +9103,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -8952,8 +9126,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -8974,8 +9149,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -8996,8 +9172,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -9018,8 +9195,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -9040,8 +9218,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -9062,8 +9241,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -9084,8 +9264,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -9106,8 +9287,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="2:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -9128,8 +9310,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -9150,8 +9333,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -9172,8 +9356,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -9194,8 +9379,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -9216,8 +9402,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -9238,8 +9425,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -9260,8 +9448,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -9282,8 +9471,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -9304,8 +9494,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -9326,8 +9517,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="2:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -9348,8 +9540,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="2:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9370,8 +9563,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -9392,8 +9586,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -9414,8 +9609,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -9436,8 +9632,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -9458,8 +9655,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -9480,8 +9678,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -9502,8 +9701,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -9524,8 +9724,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -9546,8 +9747,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -9568,8 +9770,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -9590,8 +9793,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -9612,8 +9816,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -9634,8 +9839,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -9656,8 +9862,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -9678,8 +9885,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -9700,8 +9908,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -9722,8 +9931,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -9744,8 +9954,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -9766,8 +9977,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -9788,8 +10000,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -9810,8 +10023,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -9832,8 +10046,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -9854,8 +10069,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -9876,8 +10092,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -9898,8 +10115,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -9920,8 +10138,9 @@
         <f t="shared" ref="G71:G134" si="2">EXACT(C71,UPPER(C71))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <f t="shared" ref="B72:B135" si="3">B71+1</f>
         <v>66</v>
@@ -9942,8 +10161,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -9964,8 +10184,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -9986,8 +10207,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="2:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -10008,8 +10230,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -10028,8 +10251,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I76" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -10050,8 +10276,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -10072,8 +10301,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I78" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -10094,8 +10326,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I79" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -10116,8 +10351,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -10138,8 +10376,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -10160,8 +10401,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -10182,8 +10426,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I83" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -10205,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -10226,8 +10473,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -10248,8 +10498,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I86" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -10268,8 +10521,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -10290,8 +10546,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -10312,8 +10571,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I89" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -10334,8 +10596,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I90" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -10356,8 +10621,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -10378,8 +10646,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I92" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -10400,8 +10671,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I93" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -10422,8 +10696,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I94" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -10444,8 +10721,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I95" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -10466,8 +10746,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I96" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -10488,8 +10771,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -10510,8 +10796,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I98" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -10532,8 +10821,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -10554,8 +10846,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -10576,8 +10871,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I101" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -10598,8 +10896,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -10620,8 +10921,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I103" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -10642,8 +10946,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -10664,8 +10971,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="I105" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -10686,8 +10996,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="I106" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="92.4" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -10708,8 +11021,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -10730,8 +11046,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I108" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -10752,8 +11071,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -10774,8 +11096,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I110" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -10794,8 +11119,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -10814,8 +11142,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I112" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -10834,8 +11165,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I113" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -10854,8 +11188,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I114" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -10874,8 +11211,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I115" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -10894,8 +11234,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I116" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -10914,8 +11257,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I117" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -10934,8 +11280,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I118" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -10954,8 +11303,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I119" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -10974,8 +11326,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -10994,8 +11349,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I121" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -11014,8 +11372,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I122" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -11034,8 +11395,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I123" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -11054,8 +11418,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I124" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -11076,8 +11443,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I125" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -11098,8 +11468,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I126" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -11120,8 +11493,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I127" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -11142,8 +11518,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I128" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -11164,8 +11543,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I129" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -11186,8 +11568,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I130" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -11208,8 +11593,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I131" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -11230,8 +11618,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I132" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -11252,8 +11643,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -11274,8 +11668,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I134" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -11296,8 +11693,11 @@
         <f t="shared" ref="G135:G164" si="4">EXACT(C135,UPPER(C135))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I135" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <f t="shared" ref="B136:B164" si="5">B135+1</f>
         <v>130</v>
@@ -11318,8 +11718,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I136" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <f t="shared" si="5"/>
         <v>131</v>
@@ -11340,8 +11743,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I137" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -11362,8 +11768,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I138" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -11384,8 +11793,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I139" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -11406,8 +11818,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I140" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -11428,8 +11843,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I141" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -11450,8 +11868,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I142" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -11472,8 +11893,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I143" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -11494,8 +11918,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I144" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -11516,8 +11943,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I145" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -11538,8 +11968,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I146" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -11560,8 +11993,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I147" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -11582,8 +12018,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I148" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -11604,8 +12043,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I149" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -11626,8 +12068,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I150" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -11648,8 +12093,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I151" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B152" s="3">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -11670,8 +12118,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I152" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -11692,8 +12143,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I153" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -11714,8 +12168,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I154" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -11736,8 +12193,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I155" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -11758,8 +12218,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I156" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -11780,8 +12243,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I157" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -11802,8 +12268,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I158" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -11824,8 +12293,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I159" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -11846,8 +12318,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I160" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -11868,8 +12343,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I161" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -11890,8 +12368,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I162" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -11912,8 +12393,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I163" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -11934,9 +12418,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="I164" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:G169"/>
+  <autoFilter ref="B5:G164"/>
+  <sortState ref="I6:I16">
+    <sortCondition ref="I6"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -15161,6 +15651,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:F179"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
